--- a/ra-sessions/data-intake-stata/example/ieduplicates/example-report.xlsx
+++ b/ra-sessions/data-intake-stata/example/ieduplicates/example-report.xlsx
@@ -63,16 +63,16 @@
     <t>key</t>
   </si>
   <si>
-    <t>uuid-XX34</t>
-  </si>
-  <si>
-    <t>uuid-XXX3</t>
-  </si>
-  <si>
-    <t>uuid-1206</t>
-  </si>
-  <si>
-    <t>uuid-XX33</t>
+    <t>uuid_XXX3</t>
+  </si>
+  <si>
+    <t>uuid_XX34</t>
+  </si>
+  <si>
+    <t>uuid_XX33</t>
+  </si>
+  <si>
+    <t>uuid_1206</t>
   </si>
   <si>
     <t>listofdiffs</t>
@@ -254,7 +254,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -287,7 +287,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
